--- a/document/02_結合テスト/01_テスト仕様書/テスト仕様書_エビデンス成型.xlsx
+++ b/document/02_結合テスト/01_テスト仕様書/テスト仕様書_エビデンス成型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nde4i\OneDrive\ドキュメント\GitHub\wiss1tool\document\02_結合テスト\01_テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/02_結合テスト/01_テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF826B45-A5BE-40C5-9628-B1B82A32E247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{BF826B45-A5BE-40C5-9628-B1B82A32E247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FEE3104-3425-4A73-8BB9-436E7445933F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>テスト仕様書</t>
     <rPh sb="3" eb="6">
@@ -279,26 +279,6 @@
   </si>
   <si>
     <t>CSVファイルとTSVファイル以外を選択した場合、エラーになる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSVファイルが作成されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TSVファイルが作成されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルが作成されていること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定するファイルが存在しないこと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -385,6 +365,184 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エビデンス成型</t>
+    <rPh sb="5" eb="7">
+      <t>セイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイルが重複していた場合、エラーになる。</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・異常終了すること
+・「出力ファイルが重複しています。」というエラーメッセージが表示されること。
+・メニューに戻ること
+・出力ファイルが上書き保存されないこと。</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルがタブ区切りになっている場合、エラーになる。</t>
+    <rPh sb="10" eb="12">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TSVファイルがカンマ区切りになっている場合、エラーになる。</t>
+    <rPh sb="11" eb="13">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・CSVファイルが作成されていること
+・タブ区切りになっていること</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・TSVファイルが作成されていること
+・カンマ区切りになっていること</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・CSVファイルが作成されていること
+・データ部が1件のみであること</t>
+    <rPh sb="23" eb="24">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・TSVファイルが作成されていること
+・データ部が1件のみであること</t>
+    <rPh sb="23" eb="24">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・CSVファイルが作成されていること
+・データ部が複数件であること</t>
+    <rPh sb="23" eb="24">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・TSVファイルが作成されていること
+・データ部が複数件であること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ファイルが作成されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・指定するファイルが存在しないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一度ファイルをエビデンス成型しておくこと</t>
+    <rPh sb="1" eb="3">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -538,6 +696,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,9 +725,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8F113-6048-4DD2-9BF0-9C1E33652BF4}">
   <dimension ref="G12:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -935,7 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F995017-7E8C-43EA-A483-E8106587A314}">
   <dimension ref="A2:BT28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -947,12 +1107,12 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
@@ -1022,12 +1182,12 @@
       <c r="BF2" s="9"/>
       <c r="BG2" s="9"/>
       <c r="BH2" s="9"/>
-      <c r="BI2" s="12" t="s">
+      <c r="BI2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="15"/>
       <c r="BM2" s="9" t="s">
         <v>17</v>
       </c>
@@ -1043,12 +1203,12 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1106,24 +1266,24 @@
       <c r="AX3" s="10"/>
       <c r="AY3" s="10"/>
       <c r="AZ3" s="10"/>
-      <c r="BA3" s="11" t="s">
+      <c r="BA3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="15">
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="16">
         <v>44116</v>
       </c>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="11" t="s">
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
       <c r="BM3" s="10"/>
       <c r="BN3" s="10"/>
       <c r="BO3" s="10"/>
@@ -1137,12 +1297,12 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
@@ -1163,7 +1323,7 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -1174,7 +1334,7 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -1191,7 +1351,7 @@
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
@@ -1200,12 +1360,12 @@
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
-      <c r="BA4" s="20" t="s">
+      <c r="BA4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
@@ -1227,12 +1387,12 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
@@ -1253,7 +1413,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
@@ -1264,7 +1424,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
@@ -1281,7 +1441,7 @@
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
       <c r="AS5" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
@@ -1290,12 +1450,12 @@
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
       <c r="AZ5" s="8"/>
-      <c r="BA5" s="20" t="s">
+      <c r="BA5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
@@ -1317,12 +1477,12 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1343,7 +1503,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -1354,7 +1514,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
@@ -1371,7 +1531,7 @@
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
@@ -1380,12 +1540,12 @@
       <c r="AX6" s="8"/>
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
-      <c r="BA6" s="20" t="s">
+      <c r="BA6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BB6" s="20"/>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
       <c r="BG6" s="8"/>
@@ -1407,12 +1567,12 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1433,7 +1593,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
@@ -1444,7 +1604,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -1461,7 +1621,7 @@
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AT7" s="8"/>
       <c r="AU7" s="8"/>
@@ -1470,12 +1630,12 @@
       <c r="AX7" s="8"/>
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8"/>
-      <c r="BA7" s="20" t="s">
+      <c r="BA7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BB7" s="20"/>
-      <c r="BC7" s="20"/>
-      <c r="BD7" s="20"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
       <c r="BE7" s="8"/>
       <c r="BF7" s="8"/>
       <c r="BG7" s="8"/>
@@ -1497,12 +1657,12 @@
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +1683,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -1534,7 +1694,7 @@
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
@@ -1551,7 +1711,7 @@
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AT8" s="8"/>
       <c r="AU8" s="8"/>
@@ -1560,12 +1720,12 @@
       <c r="AX8" s="8"/>
       <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
-      <c r="BA8" s="20" t="s">
+      <c r="BA8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
       <c r="BE8" s="8"/>
       <c r="BF8" s="8"/>
       <c r="BG8" s="8"/>
@@ -1587,12 +1747,12 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1613,7 +1773,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
@@ -1624,7 +1784,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
@@ -1641,7 +1801,7 @@
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AT9" s="8"/>
       <c r="AU9" s="8"/>
@@ -1650,12 +1810,12 @@
       <c r="AX9" s="8"/>
       <c r="AY9" s="8"/>
       <c r="AZ9" s="8"/>
-      <c r="BA9" s="20" t="s">
+      <c r="BA9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
       <c r="BG9" s="8"/>
@@ -1677,12 +1837,12 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1703,7 +1863,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -1714,7 +1874,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
@@ -1731,7 +1891,7 @@
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AT10" s="8"/>
       <c r="AU10" s="8"/>
@@ -1740,12 +1900,12 @@
       <c r="AX10" s="8"/>
       <c r="AY10" s="8"/>
       <c r="AZ10" s="8"/>
-      <c r="BA10" s="20" t="s">
+      <c r="BA10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
       <c r="BE10" s="8"/>
       <c r="BF10" s="8"/>
       <c r="BG10" s="8"/>
@@ -1763,52 +1923,66 @@
       <c r="BS10" s="8"/>
       <c r="BT10" s="8"/>
     </row>
-    <row r="11" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="7"/>
+    <row r="11" spans="1:72" ht="129" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
+      <c r="L11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
@@ -1816,7 +1990,9 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
+      <c r="BA11" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="7"/>
@@ -1837,28 +2013,38 @@
       <c r="BS11" s="7"/>
       <c r="BT11" s="7"/>
     </row>
-    <row r="12" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="7"/>
+    <row r="12" spans="1:72" ht="123.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
+      <c r="L12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
@@ -1867,30 +2053,36 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
+      <c r="AD12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
@@ -1911,28 +2103,38 @@
       <c r="BS12" s="7"/>
       <c r="BT12" s="7"/>
     </row>
-    <row r="13" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="7"/>
+    <row r="13" spans="1:72" ht="127.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="L13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -1941,30 +2143,36 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
+      <c r="AD13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
@@ -1987,10 +2195,10 @@
     </row>
     <row r="14" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -2061,10 +2269,10 @@
     </row>
     <row r="15" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2135,10 +2343,10 @@
     </row>
     <row r="16" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2209,10 +2417,10 @@
     </row>
     <row r="17" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2283,10 +2491,10 @@
     </row>
     <row r="18" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2357,10 +2565,10 @@
     </row>
     <row r="19" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2431,10 +2639,10 @@
     </row>
     <row r="20" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2505,10 +2713,10 @@
     </row>
     <row r="21" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2579,10 +2787,10 @@
     </row>
     <row r="22" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2653,10 +2861,10 @@
     </row>
     <row r="23" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2727,10 +2935,10 @@
     </row>
     <row r="24" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2801,10 +3009,10 @@
     </row>
     <row r="25" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2875,10 +3083,10 @@
     </row>
     <row r="26" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2949,10 +3157,10 @@
     </row>
     <row r="27" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -3023,10 +3231,10 @@
     </row>
     <row r="28" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
